--- a/Study 3/Shocks/GCAM/NDC_LTT - 2005.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2005.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.00581171393562575</v>
+        <v>0.005811713935625751</v>
       </c>
     </row>
     <row r="5">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.007453308424277905</v>
+        <v>0.007453308424277903</v>
       </c>
     </row>
     <row r="6">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5174218741594957</v>
+        <v>0.5174218741594956</v>
       </c>
     </row>
     <row r="10">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.1730984412470329</v>
+        <v>0.1730984412470328</v>
       </c>
     </row>
     <row r="14">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.004639160269496563</v>
+        <v>0.004639160269496564</v>
       </c>
     </row>
     <row r="17">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.004069086948523147</v>
+        <v>0.004069086948523146</v>
       </c>
     </row>
     <row r="18">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.2306780320811392</v>
+        <v>0.2306780320811393</v>
       </c>
     </row>
     <row r="21">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.06607749915619146</v>
+        <v>0.06607749915619145</v>
       </c>
     </row>
     <row r="22">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1078206537992207</v>
+        <v>0.1078206537992208</v>
       </c>
     </row>
     <row r="25">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1966212553730042</v>
+        <v>0.1966212553730041</v>
       </c>
     </row>
     <row r="26">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.03065031694838525</v>
+        <v>0.03065031694838524</v>
       </c>
     </row>
     <row r="30">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.35732465502546e-07</v>
+        <v>1.357324655025461e-07</v>
       </c>
     </row>
     <row r="33">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.0002482503324512002</v>
+        <v>0.0002482503324512003</v>
       </c>
     </row>
     <row r="37">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.000127083048574847</v>
+        <v>0.0001270830485748469</v>
       </c>
     </row>
     <row r="38">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.004336589786149471</v>
+        <v>0.004336589786149469</v>
       </c>
     </row>
   </sheetData>
